--- a/team_color.xlsx
+++ b/team_color.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/437fa187a6a81047/ドキュメント/NFL Blog/Roster Generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{7BAD62D2-953C-46BA-B040-5278379F0F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C754A690-F4B8-476E-BED2-355B01C0DF5B}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{7BAD62D2-953C-46BA-B040-5278379F0F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D23BCE1-C2C7-4274-9F31-0910D07B7C69}"/>
   <bookViews>
-    <workbookView xWindow="29385" yWindow="4305" windowWidth="21600" windowHeight="11295" xr2:uid="{E4D1CE3D-EFF0-41B1-92CF-13CF5F64EC94}"/>
+    <workbookView xWindow="17235" yWindow="2055" windowWidth="21600" windowHeight="11295" xr2:uid="{E4D1CE3D-EFF0-41B1-92CF-13CF5F64EC94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="85">
   <si>
     <t>Team</t>
   </si>
@@ -125,9 +125,6 @@
     <t>IND</t>
   </si>
   <si>
-    <t>#002C5F</t>
-  </si>
-  <si>
     <t>JAX</t>
   </si>
   <si>
@@ -143,9 +140,6 @@
     <t>#0C2340</t>
   </si>
   <si>
-    <t>#4B92DB</t>
-  </si>
-  <si>
     <t>DEN</t>
   </si>
   <si>
@@ -155,9 +149,6 @@
     <t>#E31837</t>
   </si>
   <si>
-    <t>#FFB81C</t>
-  </si>
-  <si>
     <t>LV</t>
   </si>
   <si>
@@ -212,9 +203,6 @@
     <t>#041E42</t>
   </si>
   <si>
-    <t>#869397</t>
-  </si>
-  <si>
     <t>NYG</t>
   </si>
   <si>
@@ -254,9 +242,6 @@
     <t>#D50A0A</t>
   </si>
   <si>
-    <t>#B1BABF</t>
-  </si>
-  <si>
     <t>ARI</t>
   </si>
   <si>
@@ -264,9 +249,6 @@
   </si>
   <si>
     <t>LAR</t>
-  </si>
-  <si>
-    <t>#FFA300</t>
   </si>
   <si>
     <t>SF</t>
@@ -289,6 +271,34 @@
   </si>
   <si>
     <t>#ffffff</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#FFD100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#003087</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#FFFFFF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#B0B7BC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#B1BABF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#4B92DB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#869397</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -296,7 +306,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="63" x14ac:knownFonts="1">
+  <fonts count="62" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,14 +490,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF002C5F"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF4B92DB"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -504,14 +506,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFB81C"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFE31837"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -672,14 +666,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFA300"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFB3995D"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -814,8 +800,24 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFD100"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF003087"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="52">
+  <fills count="51">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -878,12 +880,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF002C5F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF006778"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1052,12 +1048,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFB81C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5ACAF"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1100,12 +1090,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFA300"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFB3995D"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1119,6 +1103,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD100"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF003087"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1137,7 +1133,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1150,22 +1146,22 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1174,31 +1170,25 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1210,172 +1200,184 @@
     <xf numFmtId="0" fontId="25" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="41" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="59" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1386,6 +1388,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFB0B7BC"/>
+      <color rgb="FF003087"/>
+      <color rgb="FFFFD100"/>
       <color rgb="FFB1BABF"/>
       <color rgb="FFD50A0A"/>
       <color rgb="FF0A0A08"/>
@@ -1393,9 +1398,6 @@
       <color rgb="FF869397"/>
       <color rgb="FF003594"/>
       <color rgb="FF7F9695"/>
-      <color rgb="FFD7A22A"/>
-      <color rgb="FF006778"/>
-      <color rgb="FFB0B7BC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1728,8 +1730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D6A398B-F8C1-4EFA-A60C-CF6CEACA1532}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1746,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1762,7 +1764,7 @@
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="55"/>
+      <c r="D2" s="47"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
@@ -1823,39 +1825,39 @@
       <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="58"/>
+      <c r="C8" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="50"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="74" t="s">
-        <v>83</v>
+      <c r="C9" s="66" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1863,277 +1865,279 @@
       <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="79" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="78" t="s">
-        <v>83</v>
+      <c r="B11" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="73" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="C12" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="59"/>
+      <c r="D12" s="51"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>35</v>
+      <c r="C13" s="18" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="B15" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="75" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="26" t="s">
-        <v>41</v>
+      <c r="C16" s="22" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>47</v>
+        <v>42</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="28" t="s">
         <v>22</v>
       </c>
+      <c r="C19" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="80"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="30" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="63"/>
-      <c r="P22" s="60"/>
-      <c r="Q22" s="61"/>
+        <v>52</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="81"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="53"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="34" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="40" t="s">
-        <v>41</v>
+        <v>57</v>
+      </c>
+      <c r="B24" s="79" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="78" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="36" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="43" t="s">
+      <c r="C26" s="37" t="s">
         <v>27</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="64"/>
+      <c r="G26" s="56"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="40" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="42" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="65"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="67"/>
+        <v>66</v>
+      </c>
+      <c r="B29" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="57"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="59"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" s="77" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="76" t="s">
-        <v>83</v>
+        <v>68</v>
+      </c>
+      <c r="B30" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="68" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>75</v>
-      </c>
-      <c r="B31" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="50" t="s">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="B31" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="71" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>77</v>
-      </c>
-      <c r="B32" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="51" t="s">
-        <v>78</v>
+        <v>71</v>
+      </c>
+      <c r="B32" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="54" t="s">
-        <v>81</v>
+      <c r="C33" s="46" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>